--- a/Unity/Assets/Config/Excel/UnitConfig@cs.xlsx
+++ b/Unity/Assets/Config/Excel/UnitConfig@cs.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20395"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Project\UnityProject\ETGameLesson\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12533\Desktop\Unity\ET7-EUI\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3B8E98-5975-4F39-9C98-552CA5C05EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9A3E1F-DE99-4292-B70D-30A1B53B997C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-150" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-156" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -168,6 +168,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -225,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -241,6 +245,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -548,17 +556,17 @@
   <dimension ref="C2:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
-    <col min="3" max="4" width="12.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="28.75" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" style="2" customWidth="1"/>
+    <col min="3" max="4" width="12.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="28.77734375" style="2" customWidth="1"/>
     <col min="8" max="8" width="9" style="2"/>
     <col min="9" max="10" width="12" style="2" customWidth="1"/>
     <col min="11" max="16384" width="9" style="2"/>
@@ -646,7 +654,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="3:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="3:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="1">
         <v>1001</v>
       </c>
@@ -662,7 +670,7 @@
       <c r="G6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="1">
@@ -688,10 +696,10 @@
       <c r="G7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="8">
         <v>100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="8">
         <v>10</v>
       </c>
       <c r="J7" s="4" t="s">
@@ -714,10 +722,10 @@
       <c r="G8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="8">
         <v>200</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="8">
         <v>20</v>
       </c>
       <c r="J8" s="4" t="s">
@@ -740,10 +748,10 @@
       <c r="G9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="8">
         <v>300</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="8">
         <v>30</v>
       </c>
       <c r="J9" s="4" t="s">
@@ -766,10 +774,10 @@
       <c r="G10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="8">
         <v>400</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="8">
         <v>40</v>
       </c>
       <c r="J10" s="4" t="s">
@@ -792,10 +800,10 @@
       <c r="G11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="8">
         <v>500</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="8">
         <v>50</v>
       </c>
       <c r="J11" s="4" t="s">
@@ -818,10 +826,10 @@
       <c r="G12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="8">
         <v>600</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="8">
         <v>60</v>
       </c>
       <c r="J12" s="4" t="s">
@@ -844,10 +852,10 @@
       <c r="G13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="8">
         <v>700</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="8">
         <v>70</v>
       </c>
       <c r="J13" s="4" t="s">
@@ -871,10 +879,10 @@
       <c r="G14" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="8">
         <v>800</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="8">
         <v>80</v>
       </c>
       <c r="J14" s="4" t="s">
@@ -897,10 +905,10 @@
       <c r="G15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="8">
         <v>900</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="8">
         <v>90</v>
       </c>
       <c r="J15" s="4" t="s">
@@ -923,10 +931,10 @@
       <c r="G16" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="8">
         <v>1000</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="8">
         <v>100</v>
       </c>
       <c r="J16" s="4" t="s">
@@ -949,10 +957,10 @@
       <c r="G17" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="8">
         <v>1100</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="8">
         <v>110</v>
       </c>
       <c r="J17" s="4" t="s">
@@ -975,10 +983,10 @@
       <c r="G18" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="8">
         <v>1200</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="8">
         <v>120</v>
       </c>
       <c r="J18" s="4" t="s">
@@ -988,6 +996,6 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>